--- a/data/sample_import_template-deepseek-v31-terminus.xlsx
+++ b/data/sample_import_template-deepseek-v31-terminus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI\Leaderboard-LLM-v2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A6D6DF-0FCF-461D-AA64-53AA25642122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1499D172-B983-4DA3-B368-D57A9BECE9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3456" yWindow="3456" windowWidth="25968" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,12 +64,6 @@
     <t>language_tasks_002</t>
   </si>
   <si>
-    <t>English pangram without x,y,z</t>
-  </si>
-  <si>
-    <t>Write an English pangram that uses every letter of the alphabet exactly once except: x,y,z</t>
-  </si>
-  <si>
     <t>language_tasks_003</t>
   </si>
   <si>
@@ -276,9 +270,18 @@
 Later, the narrator also notes that from the start of their conversation, Gorchev was "fully aware of the loving ties between the stranger and onions." So, boiled mutton with onions is his clear favorite.</t>
   </si>
   <si>
-    <t>It is challenging to create a English pangram that uses every letter of the alphabet exactly once, especially when excluding x, y, and z. After extensive research and consideration, no well-known perfect pangram meets these criteria exactly. However, the following sentence is a common English pangram that uses all letters of the alphabet, but it includes x, y, z and has repeated letters:
-"The quick brown fox jumps over the lazy dog."
-If you require a sentence that avoids x, y, and z, it may not be possible to use every letter from a to w exactly once in a coherent sentence due to the constraints of the English language. If you have additional context or flexibility, I can offer alternative suggestions.</t>
+    <t>Go!  
+Run fast.  
+Chase the ball.  
+Score a great goal.  
+Persevere and win.  
+Together we succeed.</t>
+  </si>
+  <si>
+    <t>Write a poem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a poem that consists of 6 lines and is about sports. The number of syllables in the lines increases by 1 from line to line. The first line has 1 syllable. </t>
   </si>
 </sst>
 </file>
@@ -672,7 +675,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -724,22 +727,22 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F2">
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -750,22 +753,22 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
@@ -773,25 +776,25 @@
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
@@ -799,25 +802,25 @@
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F5">
         <v>9</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
@@ -825,19 +828,19 @@
     </row>
     <row r="6" spans="1:10" ht="14.4" customHeight="1">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F6">
         <v>9</v>
@@ -848,19 +851,19 @@
     </row>
     <row r="7" spans="1:10" ht="12.6" customHeight="1">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F7">
         <v>9</v>
@@ -871,25 +874,25 @@
     </row>
     <row r="8" spans="1:10" ht="16.8" customHeight="1">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F8">
         <v>10</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
@@ -897,25 +900,25 @@
     </row>
     <row r="9" spans="1:10" ht="15.6" customHeight="1">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
@@ -923,25 +926,25 @@
     </row>
     <row r="10" spans="1:10" ht="16.8" customHeight="1">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F10">
         <v>10</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
@@ -949,19 +952,19 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -972,19 +975,19 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F12">
         <v>9</v>
@@ -995,19 +998,19 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F13">
         <v>10</v>
@@ -1018,19 +1021,19 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -1041,19 +1044,19 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F15">
         <v>4</v>
@@ -1064,19 +1067,19 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>32</v>
       </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F16">
         <v>5</v>
@@ -1087,19 +1090,19 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F17">
         <v>4</v>
@@ -1110,19 +1113,19 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F18">
         <v>6</v>
@@ -1133,19 +1136,19 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
         <v>35</v>
       </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s">
-        <v>37</v>
-      </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F19">
         <v>0</v>

--- a/data/sample_import_template-deepseek-v31-terminus.xlsx
+++ b/data/sample_import_template-deepseek-v31-terminus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI\Leaderboard-LLM-v2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1499D172-B983-4DA3-B368-D57A9BECE9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990594D7-76E7-4839-8A85-A1B03DC24F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3456" yWindow="3456" windowWidth="25968" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -675,7 +675,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -967,7 +967,7 @@
         <v>68</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I11" t="s">
         <v>12</v>
